--- a/src/test/resources/login_data.xlsx
+++ b/src/test/resources/login_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\LearningJava\TestNGMavenExample\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2985E912-BD28-49A2-8711-A97839B7C361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E304C6-4B46-40DE-A5C0-CC56367D33CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TEMP_DATA" sheetId="3" r:id="rId1"/>
-    <sheet name="LOGIN_DATA" sheetId="1" r:id="rId2"/>
-    <sheet name="RESULT_TEST" sheetId="2" r:id="rId3"/>
+    <sheet name="LOGIN_DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="SIGNUP_DATA" sheetId="4" r:id="rId2"/>
+    <sheet name="LOGIN_TEST_RESULT" sheetId="2" r:id="rId3"/>
+    <sheet name="SIGNUP_TEST_RESULT" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>Username</t>
   </si>
@@ -87,13 +88,149 @@
   </si>
   <si>
     <t>Test Time</t>
+  </si>
+  <si>
+    <t>Test login function</t>
+  </si>
+  <si>
+    <t>TestLogin</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:58839}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58839/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 47835f88f4a20d92e3b66dbe6a910a58</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:58861}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58861/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 69291f3d6e7bb46f464664386bedc175</t>
+  </si>
+  <si>
+    <t>Please include an '@' in the email address. 'a' is missing an '@'.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:58989}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58989/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 67603a14c112c05a3ac8d5aa45d700e8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:59014}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59014/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5e8905e7839d137c080a7f39936bf221</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
+Build info: version: '4.25.0', revision: '8a8aea2337'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:59039}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59039/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 73e42b2f88808e9029d0284eb5a75958</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>alex.nguyen240123123@gmail.com</t>
+  </si>
+  <si>
+    <t>Sign Up Success</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>john.doe@gmail.com</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>michael.lee@example.com</t>
+  </si>
+  <si>
+    <t>mypassword</t>
+  </si>
+  <si>
+    <t>Sign up Success</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>emma.davis@gmail.com</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>rachel.brown@example.com</t>
+  </si>
+  <si>
+    <t>securepass123</t>
+  </si>
+  <si>
+    <t>Detail Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss\ dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +253,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,15 +282,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,98 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF91BCB-AAED-4CE8-9CB2-88330C613326}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4A5CB3B7-BFFA-4C3A-8BD2-4CB8CD74378D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -612,12 +705,169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4D8AF8-990A-4355-9A27-96D8D50FC0DD}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="21.8984375" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>912345678</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>987654321</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>905123440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>876543210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9CE25DB2-3E00-40DA-9056-25D51F238BA2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB6F8E-E071-47A0-AEF3-74C70444EECE}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -628,6 +878,7 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="19.69921875" customWidth="1"/>
     <col min="9" max="9" width="98.296875" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
@@ -665,6 +916,279 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45607.762255208334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45607.762351747682</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45607.762420995372</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45607.762463437502</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45607.762569907405</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45607.762656643521</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45607.762763923609</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694E1B81-4059-4ED3-9874-714FF9E4BCAE}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.09765625" customWidth="1"/>
+    <col min="12" max="12" width="13.8984375" customWidth="1"/>
+    <col min="13" max="13" width="42.19921875" customWidth="1"/>
+    <col min="14" max="14" width="98.296875" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/login_data.xlsx
+++ b/src/test/resources/login_data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\LearningJava\TestNGMavenExample\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E304C6-4B46-40DE-A5C0-CC56367D33CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B7192-0D18-446C-8A24-ED08A87ACE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="61">
   <si>
     <t>Username</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
     <t>taiphanvan2403@gmail.com</t>
   </si>
   <si>
@@ -90,147 +87,141 @@
     <t>Test Time</t>
   </si>
   <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>alex.nguyen240123123@gmail.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>john.doe@gmail.com</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>michael.lee@example.com</t>
+  </si>
+  <si>
+    <t>mypassword</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>emma.davis@gmail.com</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>rachel.brown@example.com</t>
+  </si>
+  <si>
+    <t>securepass123</t>
+  </si>
+  <si>
+    <t>Detail Message</t>
+  </si>
+  <si>
+    <t>SignUp Success</t>
+  </si>
+  <si>
     <t>Test login function</t>
   </si>
   <si>
     <t>TestLogin</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:58839}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58839/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 47835f88f4a20d92e3b66dbe6a910a58</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:58861}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58861/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 69291f3d6e7bb46f464664386bedc175</t>
+    <t>Invalid Login: Please check your emal and password</t>
   </si>
   <si>
     <t>Please include an '@' in the email address. 'a' is missing an '@'.</t>
   </si>
   <si>
-    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:58989}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58989/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 67603a14c112c05a3ac8d5aa45d700e8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:59014}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59014/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5e8905e7839d137c080a7f39936bf221</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for url to be "https://phptravels.net/dashboard". Current url: "https://phptravels.net/login" (tried for 2 second(s) with 500 milliseconds interval)
-Build info: version: '4.25.0', revision: '8a8aea2337'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.5'
-Driver info: org.openqa.selenium.edge.EdgeDriver
-Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 130.0.2849.80, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:59039}, msedge: {msedgedriverVersion: 130.0.2849.56 (85245383cd01..., userDataDir: C:\Users\Lenovo\AppData\Loc...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59039/devtoo..., se:cdpVersion: 130.0.2849.80, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 73e42b2f88808e9029d0284eb5a75958</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>alex.nguyen240123123@gmail.com</t>
-  </si>
-  <si>
-    <t>Sign Up Success</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>john.doe@gmail.com</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>michael.lee@example.com</t>
-  </si>
-  <si>
-    <t>mypassword</t>
-  </si>
-  <si>
-    <t>Sign up Success</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>emma.davis@gmail.com</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>rachel.brown@example.com</t>
-  </si>
-  <si>
-    <t>securepass123</t>
-  </si>
-  <si>
-    <t>Detail Message</t>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>912345678</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>testSignUp</t>
+  </si>
+  <si>
+    <t>SignUp Fail</t>
+  </si>
+  <si>
+    <t>Account already exist: Please use different email</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>905123440</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>876543210</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss\ dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +251,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +272,19 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -297,31 +307,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -611,87 +712,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.796875"/>
+    <col min="2" max="2" customWidth="true" width="15.796875"/>
+    <col min="3" max="3" customWidth="true" width="15.19921875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -710,147 +811,147 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="21.8984375" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.8984375"/>
+    <col min="2" max="2" customWidth="true" width="13.8984375"/>
+    <col min="3" max="3" customWidth="true" width="9.59765625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.8984375"/>
+    <col min="5" max="5" customWidth="true" width="29.0"/>
+    <col min="6" max="6" customWidth="true" width="21.8984375"/>
+    <col min="7" max="7" customWidth="true" width="14.796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>912345678</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>987654321</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="G4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C5" s="0">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="D5" s="0">
+        <v>905123440</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>912345678</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="6">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>987654321</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D6" s="0">
+        <v>876543210</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>905123440</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>876543210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -864,88 +965,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB6F8E-E071-47A0-AEF3-74C70444EECE}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.09765625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" customWidth="1"/>
-    <col min="9" max="9" width="98.296875" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.09765625"/>
+    <col min="2" max="2" customWidth="true" width="16.0"/>
+    <col min="3" max="3" customWidth="true" width="9.0"/>
+    <col min="4" max="4" customWidth="true" width="20.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="6" max="6" customWidth="true" width="13.8984375"/>
+    <col min="7" max="7" customWidth="true" width="14.0"/>
+    <col min="8" max="8" customWidth="true" width="19.69921875"/>
+    <col min="9" max="9" customWidth="true" width="98.296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45608.378904884259</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45607.762255208334</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -953,13 +1050,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3">
-        <v>45607.762351747682</v>
+        <v>45608.378979398149</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -968,13 +1065,13 @@
         <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,13 +1079,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3">
-        <v>45607.762420995372</v>
+        <v>45608.379126018517</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -997,10 +1094,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1008,13 +1105,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>45607.762463437502</v>
+        <v>45608.379173796297</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
@@ -1023,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1037,83 +1134,483 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45608.379243425923</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3">
-        <v>45607.762569907405</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45608.379322696761</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="I7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45608.379396701392</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="60.0" customHeight="true" s="12" customFormat="true">
+      <c r="A9" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n" s="12">
+        <v>45608.38530071759</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="60.0" customHeight="true" s="12" customFormat="true">
+      <c r="A10" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="D10" t="n" s="12">
+        <v>45608.38537130787</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="60.0" customHeight="true" s="12" customFormat="true">
+      <c r="A11" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n" s="12">
+        <v>45608.385520324075</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="60.0" customHeight="true" s="12" customFormat="true">
+      <c r="A12" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n" s="12">
+        <v>45608.38557053241</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="60.0" customHeight="true" s="12" customFormat="true">
+      <c r="A13" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="D13" t="n" s="12">
+        <v>45608.385646539355</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="60.0" customHeight="true" s="12" customFormat="true">
+      <c r="A14" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
-        <v>45607.762656643521</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B14" t="s" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="D14" t="n" s="18">
+        <v>45608.38571446759</v>
+      </c>
+      <c r="E14" t="s" s="18">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s" s="18">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="I14" t="s" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="60.0" customHeight="true" s="12" customFormat="true">
+      <c r="A15" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
-        <v>45607.762763923609</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B15" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="D15" t="n" s="19">
+        <v>45608.385794305555</v>
+      </c>
+      <c r="E15" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
+      <c r="I15" t="s" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="60.0" customHeight="true" s="26" customFormat="true">
+      <c r="A16" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="D16" t="n" s="26">
+        <v>45608.39178388889</v>
+      </c>
+      <c r="E16" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s" s="26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="60.0" customHeight="true" s="26" customFormat="true">
+      <c r="A17" t="s" s="26">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="D17" t="n" s="26">
+        <v>45608.39186609954</v>
+      </c>
+      <c r="E17" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s" s="26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="60.0" customHeight="true" s="26" customFormat="true">
+      <c r="A18" t="s" s="26">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="D18" t="n" s="26">
+        <v>45608.392014791665</v>
+      </c>
+      <c r="E18" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s" s="26">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s" s="26">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s" s="26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="60.0" customHeight="true" s="26" customFormat="true">
+      <c r="A19" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="D19" t="n" s="26">
+        <v>45608.39206438657</v>
+      </c>
+      <c r="E19" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s" s="26">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s" s="26">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s" s="26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="60.0" customHeight="true" s="26" customFormat="true">
+      <c r="A20" t="s" s="26">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="D20" t="n" s="26">
+        <v>45608.39213449074</v>
+      </c>
+      <c r="E20" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s" s="26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" ht="60.0" customHeight="true" s="26" customFormat="true">
+      <c r="A21" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="32">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s" s="32">
+        <v>46</v>
+      </c>
+      <c r="D21" t="n" s="32">
+        <v>45608.39220815972</v>
+      </c>
+      <c r="E21" t="s" s="32">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s" s="32">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s" s="32">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="60.0" customHeight="true" s="26" customFormat="true">
+      <c r="A22" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="33">
+        <v>46</v>
+      </c>
+      <c r="D22" t="n" s="33">
+        <v>45608.39227885417</v>
+      </c>
+      <c r="E22" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s" s="33">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s" s="33">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s" s="33">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s" s="33">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1123,70 +1620,246 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694E1B81-4059-4ED3-9874-714FF9E4BCAE}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M6"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.09765625" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" customWidth="1"/>
-    <col min="13" max="13" width="42.19921875" customWidth="1"/>
-    <col min="14" max="14" width="98.296875" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0"/>
+    <col min="2" max="2" customWidth="true" width="12.796875"/>
+    <col min="3" max="3" customWidth="true" width="12.19921875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.8984375"/>
+    <col min="5" max="5" customWidth="true" width="12.8984375"/>
+    <col min="6" max="6" customWidth="true" width="15.8984375"/>
+    <col min="7" max="7" customWidth="true" width="10.0"/>
+    <col min="8" max="8" customWidth="true" width="12.59765625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.296875"/>
+    <col min="11" max="11" customWidth="true" width="10.09765625"/>
+    <col min="12" max="12" customWidth="true" width="13.8984375"/>
+    <col min="13" max="13" customWidth="true" width="42.19921875"/>
+    <col min="14" max="14" customWidth="true" width="98.296875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="60.0" customHeight="true" s="20" customFormat="true">
+      <c r="A2" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="21">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s" s="21">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s" s="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="60.0" customHeight="true" s="20" customFormat="true">
+      <c r="A3" t="s" s="20">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="60.0" customHeight="true" s="20" customFormat="true">
+      <c r="A4" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="20">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F4" t="s" s="20">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="60.0" customHeight="true" s="20" customFormat="true">
+      <c r="A5" t="s" s="20">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B5" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s" s="20">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="6" ht="60.0" customHeight="true" s="20" customFormat="true">
+      <c r="A6" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="25">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s" s="25">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s" s="25">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s" s="25">
+        <v>43</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" t="s" s="25">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s" s="25">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s" s="25">
         <v>55</v>
+      </c>
+      <c r="L6" t="s" s="25">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s" s="25">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
